--- a/rdm-rest/src/test/resources/testUploadInvalidReference.xlsx
+++ b/rdm-rest/src/test/resources/testUploadInvalidReference.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20731"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D161F172-AB54-4C43-AAA2-222AE6339136}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tsclient\D\inovus\Projects\rdm\rdm-rest\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179020"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>string</t>
   </si>
@@ -39,13 +43,16 @@
   </si>
   <si>
     <t>true</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,19 +397,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -418,8 +425,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -434,6 +444,9 @@
       </c>
       <c r="E2" t="s">
         <v>7</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
